--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo Coto\PycharmProjects\Loja0321\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F40585-FEAD-4E02-B860-2F0C6D0428EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="4008" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monitores" sheetId="2" r:id="rId1"/>
     <sheet name="Placas Gráficas" sheetId="1" r:id="rId2"/>
-    <sheet name="Caixas" sheetId="3" r:id="rId3"/>
+    <sheet name="Shotgun" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>Código</t>
   </si>
@@ -178,57 +172,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Antec ISK 300-150 EC PC 150W Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Cooler Master CM 690 III Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>UNYKA - CAIXA DESKTOP SLIM M.ATX UK-2007 USB 3.0 400W PRETA</t>
-  </si>
-  <si>
-    <t>UNYKAch Blast Ice Torre Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>ASUS - PC VIVOPC I5-7200U S/MEN S/ HD S/SO - UN65U-BM009M</t>
-  </si>
-  <si>
-    <t>MARS GAMING - BUNDLE - MARS GAMING - CAIXA MC0 VENTOINHA MF12G</t>
-  </si>
-  <si>
-    <t>ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul</t>
-  </si>
-  <si>
-    <t>ASUS UN65U-BM008M BGA 1356 2.40GHz i3-7100U Azul</t>
-  </si>
-  <si>
-    <t>COOLER MASTER - MASTER ATX MASTERCASE MAKER 5T PRETA SEM FONTE</t>
-  </si>
-  <si>
-    <t>NOX - Ark Gaming case</t>
-  </si>
-  <si>
-    <t>Aerocool BATTLEHAWK Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Cinzento, Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS-1 Midi Tower Case - Black Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS3 Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool V3X Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Tacens AC017AD Mini-Torre Preto caixa para computador</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -245,12 +188,77 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>Mossberg 590 Shockwave 12ga 14" 6-shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mossberg Shockwave 14" 20GA 5+1</t>
+  </si>
+  <si>
+    <t>Mossberg 590 Shockwave 12ga 5+1 FDE</t>
+  </si>
+  <si>
+    <t>Beretta A300 12GA 3" 28 MC3 SYN</t>
+  </si>
+  <si>
+    <t>Remington 870 Express 12g 18"</t>
+  </si>
+  <si>
+    <t>Maverick 88 12GA 20" Security Cylinder Bore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dickinson/Titan Arms Commando XX3B 12GA 18.5</t>
+  </si>
+  <si>
+    <t>Rock Island X4 Tact Shotgun Semi-Automatic 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+REM 870 TAC 14 12GA RAPTOR GRIP WOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CIA 12 Ga. Coach Gun w/Hammers Side by Side 12</t>
+  </si>
+  <si>
+    <t>Standard Mfg DP12 12GA Package BUDS EXCLUSIVE</t>
+  </si>
+  <si>
+    <t>1,200,99</t>
+  </si>
+  <si>
+    <t>SDS IMPORTS LYNX HC 12GA 19 5RD BLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Savage 220 SLUG GUN 20GA 22"</t>
+  </si>
+  <si>
+    <t>Remington Model 870 TAC-14 Arm Brace</t>
+  </si>
+  <si>
+    <t>TRISTAR BULLPUP COMPACT 12GA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rossi CIRCUIT JUDGE 45/410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mossberg 590M Mag-Fed 12ga 18.5" 10+1 Capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+UTAS XTR-12 12GA STANDARD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -291,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,6 +313,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -346,29 +355,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Marca" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sync" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="Código" dataDxfId="4"/>
+    <tableColumn id="2" name="Marca" dataDxfId="3"/>
+    <tableColumn id="3" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="4" name="Sync" dataDxfId="1"/>
+    <tableColumn id="5" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Fabricante"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Marca"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Designação"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{FFB35986-AE7C-4950-9091-2B68C9ECF840}" name="Preço" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="Código"/>
+    <tableColumn id="3" name="Fabricante"/>
+    <tableColumn id="4" name="Marca"/>
+    <tableColumn id="5" name="Designação"/>
+    <tableColumn id="7" name="Quantidade"/>
+    <tableColumn id="6" name="Preço" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -417,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,26 +459,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,23 +494,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,22 +669,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -743,7 +718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -760,7 +735,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -777,7 +752,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -794,7 +769,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,7 +786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -828,7 +803,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -845,7 +820,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -862,7 +837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -879,7 +854,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -896,7 +871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -913,7 +888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -939,24 +914,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -996,7 +971,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +991,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1011,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1031,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1051,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1091,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1131,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1151,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1171,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1225,21 +1200,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1250,206 +1225,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="6">
-        <v>102.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>269.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6">
-        <v>37.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>339.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6">
-        <v>23.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>587.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
-        <v>419.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="6">
-        <v>21.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="6">
-        <v>391.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>244.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="6">
-        <v>350.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>413.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
+      <c r="B11" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="6">
-        <v>267.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>317.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6">
-        <v>115.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="6">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>469.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="6">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>445.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6">
-        <v>78.989999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>582.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C16" s="6">
-        <v>37.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>551.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="6">
-        <v>51.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>584.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="6">
-        <v>37.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>399.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C19" s="6">
-        <v>19.09</v>
+        <v>810.09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitores" sheetId="2" r:id="rId1"/>
+    <sheet name="Rifles" sheetId="2" r:id="rId1"/>
     <sheet name="Placas Gráficas" sheetId="1" r:id="rId2"/>
     <sheet name="Shotgun" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Código</t>
   </si>
@@ -137,36 +137,6 @@
   </si>
   <si>
     <t>RX 590</t>
-  </si>
-  <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
-    <t>Sync</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>AOC</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>BenQ</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>Sku</t>
   </si>
   <si>
     <t>Nome</t>
@@ -253,6 +223,43 @@
   <si>
     <t xml:space="preserve">
 UTAS XTR-12 12GA STANDARD</t>
+  </si>
+  <si>
+    <t>S&amp;W M&amp;P 15 Sport II .223REM/5.56NATO 16"</t>
+  </si>
+  <si>
+    <t>Ruger MPR 5.56 18 30RD</t>
+  </si>
+  <si>
+    <t>Ruger 10/22 Collectors Series #3 MBF 22LR. 18.5"</t>
+  </si>
+  <si>
+    <t>Century RI3320X C308 Semi-Automatic 308 Winchester</t>
+  </si>
+  <si>
+    <t>Uzi Tactical Rifle Semi-Auto 22LR 16\"</t>
+  </si>
+  <si>
+    <t>S&amp;W M&amp;P15 22 Sport 10208 22LR 16 Collapsible Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Bushmaster QRC W/RED DOT 5.56 30R</t>
+  </si>
+  <si>
+    <t>Ruger Precision Rifle 338LAP 26\" 5+1 MLOK</t>
+  </si>
+  <si>
+    <t>Rock Island 51121 Rifle MAK22 Semi-Automatic 22 LR</t>
+  </si>
+  <si>
+    <t>CZ Scorpion EVO 3 S1 Carbine w/ Muzzle Brake 20rd</t>
+  </si>
+  <si>
+    <t>CIA RI2398N C39 V2 SA 7.62x39mm 16.5" 30+1 Wood</t>
+  </si>
+  <si>
+    <t>Century RI2399N C39 V2 Magpul MOE Semi-Automatic</t>
   </si>
 </sst>
 </file>
@@ -308,26 +315,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
@@ -355,13 +358,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E13"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" name="Marca" dataDxfId="3"/>
-    <tableColumn id="3" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" name="Sync" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C13"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Código" dataDxfId="2"/>
+    <tableColumn id="2" name="Nome" dataDxfId="1"/>
     <tableColumn id="5" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -670,239 +671,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5">
-        <v>230</v>
+        <v>75</v>
+      </c>
+      <c r="C13" s="4">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -917,9 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -967,7 +887,7 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>390</v>
       </c>
     </row>
@@ -987,7 +907,7 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>490</v>
       </c>
     </row>
@@ -1007,7 +927,7 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>630</v>
       </c>
     </row>
@@ -1027,7 +947,7 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>305</v>
       </c>
     </row>
@@ -1047,7 +967,7 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1067,7 +987,7 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>85</v>
       </c>
     </row>
@@ -1087,7 +1007,7 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>600</v>
       </c>
     </row>
@@ -1107,7 +1027,7 @@
       <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>65</v>
       </c>
     </row>
@@ -1127,7 +1047,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>420</v>
       </c>
     </row>
@@ -1147,7 +1067,7 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>315</v>
       </c>
     </row>
@@ -1167,7 +1087,7 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>575</v>
       </c>
     </row>
@@ -1187,7 +1107,7 @@
       <c r="E13">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>145</v>
       </c>
     </row>
@@ -1204,24 +1124,24 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1230,9 +1150,9 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="6">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
         <v>297.99</v>
       </c>
     </row>
@@ -1240,10 +1160,10 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5">
         <v>269.99</v>
       </c>
     </row>
@@ -1252,9 +1172,9 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="6">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5">
         <v>339.99</v>
       </c>
     </row>
@@ -1263,9 +1183,9 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="6">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
         <v>587.09</v>
       </c>
     </row>
@@ -1274,9 +1194,9 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5">
         <v>309.99</v>
       </c>
     </row>
@@ -1285,9 +1205,9 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
         <v>203.99</v>
       </c>
     </row>
@@ -1295,10 +1215,10 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5">
         <v>161.19</v>
       </c>
     </row>
@@ -1306,10 +1226,10 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5">
         <v>244.99</v>
       </c>
     </row>
@@ -1317,10 +1237,10 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5">
         <v>413.99</v>
       </c>
     </row>
@@ -1328,10 +1248,10 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5">
         <v>317.99</v>
       </c>
     </row>
@@ -1339,87 +1259,87 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>66</v>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5">
         <v>469.99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="6">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5">
         <v>445.99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5">
         <v>582.99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5">
         <v>551.79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="6">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5">
         <v>584.99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="6">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5">
         <v>399.19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="6">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5">
         <v>810.09</v>
       </c>
     </row>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rifles" sheetId="2" r:id="rId1"/>
-    <sheet name="Placas Gráficas" sheetId="1" r:id="rId2"/>
+    <sheet name="Handguns" sheetId="1" r:id="rId2"/>
     <sheet name="Shotgun" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -23,20 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Código</t>
   </si>
   <si>
-    <t>Designação</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -71,72 +65,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>nvidia</t>
-  </si>
-  <si>
-    <t>amd</t>
-  </si>
-  <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>Gigabyte</t>
-  </si>
-  <si>
-    <t>EVGA</t>
-  </si>
-  <si>
-    <t>Palit</t>
-  </si>
-  <si>
-    <t>Sapphire</t>
-  </si>
-  <si>
-    <t>RTX 2060</t>
-  </si>
-  <si>
-    <t>RTX 2070</t>
-  </si>
-  <si>
-    <t>RTX 2080</t>
-  </si>
-  <si>
-    <t>GTX 1660 TI</t>
-  </si>
-  <si>
-    <t>GTX 1070</t>
-  </si>
-  <si>
-    <t>GT 1030</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>GTS 210</t>
-  </si>
-  <si>
-    <t>Vega 56</t>
-  </si>
-  <si>
-    <t>Vega 64</t>
-  </si>
-  <si>
-    <t>RX 550</t>
-  </si>
-  <si>
-    <t>RX 590</t>
   </si>
   <si>
     <t>Nome</t>
@@ -260,6 +188,42 @@
   </si>
   <si>
     <t>Century RI2399N C39 V2 Magpul MOE Semi-Automatic</t>
+  </si>
+  <si>
+    <t>Taurus G2C 9MM</t>
+  </si>
+  <si>
+    <t>S&amp;W M&amp;P9 Shield 7+1/8+1 9mm 3.1"</t>
+  </si>
+  <si>
+    <t>Walther PPS M2 LE Edition 9mm 3.18" 6/7/8+1</t>
+  </si>
+  <si>
+    <t>Colt 1911 Government Tribute 22LR Rail 5" 12+1</t>
+  </si>
+  <si>
+    <t>Taurus G2C 40S&amp;W 3.2" 10+1rd Black Polymer G</t>
+  </si>
+  <si>
+    <t>PHOENIX HP22 .22LR NICKEL BLACK GRIP</t>
+  </si>
+  <si>
+    <t>Taurus G2C 9mm Sub-Compact Pistol Cyan</t>
+  </si>
+  <si>
+    <t>Glock G43X Subcompact 9mm 3.41" Fixed Sights 10+1</t>
+  </si>
+  <si>
+    <t>Taurus 4510TKR-3MAG M4510 Judge 5RD 3" 410ga/45LC</t>
+  </si>
+  <si>
+    <t>Canik TP9SF Elite Combat 9mm FDE 15/18+1</t>
+  </si>
+  <si>
+    <t>Walther Arms 5120338 P22 Military California</t>
+  </si>
+  <si>
+    <t>Ruger 3790 LCP 380acp 10th Anniversary</t>
   </si>
 </sst>
 </file>
@@ -328,7 +292,27 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -358,29 +342,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Código" dataDxfId="2"/>
-    <tableColumn id="2" name="Nome" dataDxfId="1"/>
-    <tableColumn id="5" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="Código" dataDxfId="4"/>
+    <tableColumn id="2" name="Nome" dataDxfId="3"/>
+    <tableColumn id="5" name="Preço" dataDxfId="2" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Código"/>
-    <tableColumn id="3" name="Fabricante"/>
-    <tableColumn id="4" name="Marca"/>
-    <tableColumn id="5" name="Designação"/>
-    <tableColumn id="7" name="Quantidade"/>
+    <tableColumn id="7" name="Nome"/>
     <tableColumn id="6" name="Preço" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Código"/>
+    <tableColumn id="2" name="Nome" dataDxfId="1"/>
+    <tableColumn id="3" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -689,18 +682,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4">
         <v>519</v>
@@ -708,10 +701,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4">
         <v>604</v>
@@ -719,10 +712,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>245</v>
@@ -730,10 +723,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4">
         <v>616</v>
@@ -741,10 +734,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <v>327</v>
@@ -752,10 +745,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4">
         <v>317</v>
@@ -763,10 +756,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4">
         <v>535</v>
@@ -774,10 +767,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4">
         <v>1565</v>
@@ -785,10 +778,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
         <v>178</v>
@@ -796,10 +789,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4">
         <v>957</v>
@@ -807,10 +800,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4">
         <v>435</v>
@@ -818,10 +811,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4">
         <v>728</v>
@@ -837,284 +830,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
-        <v>145</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1123,13 +999,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1139,18 +1015,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5">
         <v>297.99</v>
@@ -1158,10 +1034,10 @@
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <v>269.99</v>
@@ -1169,10 +1045,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>339.99</v>
@@ -1180,10 +1056,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5">
         <v>587.09</v>
@@ -1191,10 +1067,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>309.99</v>
@@ -1202,10 +1078,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>203.99</v>
@@ -1213,10 +1089,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>161.19</v>
@@ -1224,10 +1100,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>244.99</v>
@@ -1235,10 +1111,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <v>413.99</v>
@@ -1246,10 +1122,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
         <v>317.99</v>
@@ -1257,21 +1133,21 @@
     </row>
     <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>469.99</v>
@@ -1279,10 +1155,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5">
         <v>445.99</v>
@@ -1290,10 +1166,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
         <v>582.99</v>
@@ -1301,10 +1177,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>551.79</v>
@@ -1312,10 +1188,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5">
         <v>584.99</v>
@@ -1323,10 +1199,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5">
         <v>399.19</v>
@@ -1334,10 +1210,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>810.09</v>
@@ -1346,5 +1222,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>